--- a/data/Список матчей.xlsx
+++ b/data/Список матчей.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminPC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB8A21-2749-4ADB-A27F-F39A43CE2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF9B3C-DFB2-4D41-8C1C-6D5A6CE9A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="1020" windowWidth="26445" windowHeight="15585" xr2:uid="{802232A7-A607-451C-9F14-D821B53D75EE}"/>
+    <workbookView xWindow="-27630" yWindow="3525" windowWidth="26445" windowHeight="15585" xr2:uid="{802232A7-A607-451C-9F14-D821B53D75EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Список матчей" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,63 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Имя 1</t>
+  </si>
+  <si>
+    <t>Партия 1</t>
+  </si>
+  <si>
+    <t>Партия 2</t>
+  </si>
+  <si>
+    <t>Партия 3</t>
+  </si>
+  <si>
+    <t>Партия 4</t>
+  </si>
+  <si>
+    <t>Партия 5</t>
+  </si>
+  <si>
+    <t>Партия 6</t>
+  </si>
+  <si>
+    <t>Партия 7</t>
+  </si>
+  <si>
+    <t>Имя 2</t>
+  </si>
+  <si>
+    <t>Общий счет</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Витя</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -56,8 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,14 +427,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA7D7C7-935C-4B5D-8226-44AF241106E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Список матчей.xlsx
+++ b/data/Список матчей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminPC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF9B3C-DFB2-4D41-8C1C-6D5A6CE9A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB23D19-7402-41F1-AD93-11F2B093343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27630" yWindow="3525" windowWidth="26445" windowHeight="15585" xr2:uid="{802232A7-A607-451C-9F14-D821B53D75EE}"/>
   </bookViews>
@@ -25,32 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Имя 1</t>
   </si>
   <si>
-    <t>Партия 1</t>
-  </si>
-  <si>
-    <t>Партия 2</t>
-  </si>
-  <si>
-    <t>Партия 3</t>
-  </si>
-  <si>
-    <t>Партия 4</t>
-  </si>
-  <si>
-    <t>Партия 5</t>
-  </si>
-  <si>
-    <t>Партия 6</t>
-  </si>
-  <si>
-    <t>Партия 7</t>
-  </si>
-  <si>
     <t>Имя 2</t>
   </si>
   <si>
@@ -64,6 +43,48 @@
   </si>
   <si>
     <t>Витя</t>
+  </si>
+  <si>
+    <t>Партия 1 1</t>
+  </si>
+  <si>
+    <t>Партия 2 1</t>
+  </si>
+  <si>
+    <t>Партия 3 1</t>
+  </si>
+  <si>
+    <t>Партия 4 1</t>
+  </si>
+  <si>
+    <t>Партия 5 1</t>
+  </si>
+  <si>
+    <t>Партия 6 1</t>
+  </si>
+  <si>
+    <t>Партия 7 1</t>
+  </si>
+  <si>
+    <t>Партия 1 2</t>
+  </si>
+  <si>
+    <t>Партия 22</t>
+  </si>
+  <si>
+    <t>Партия 3 2</t>
+  </si>
+  <si>
+    <t>Партия 4 2</t>
+  </si>
+  <si>
+    <t>Партия 5 2</t>
+  </si>
+  <si>
+    <t>Партия 6 2</t>
+  </si>
+  <si>
+    <t>Партия 7 2</t>
   </si>
 </sst>
 </file>
@@ -107,12 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,11 +448,14 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,44 +463,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -524,22 +559,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
